--- a/team_file.xlsx
+++ b/team_file.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,168 +2549,2156 @@
     </row>
     <row r="67"/>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116"/>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133"/>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
         <is>
           <t>Person1</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B134" s="3" t="inlineStr">
         <is>
           <t>someone1@example.com</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C134" s="3" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="D68" s="5" t="inlineStr">
+      <c r="D134" s="5" t="inlineStr">
         <is>
           <t>1/1/2021</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E134" s="3" t="inlineStr">
         <is>
           <t>10am</t>
         </is>
       </c>
-      <c r="F68" s="5" t="inlineStr">
+      <c r="F134" s="5" t="inlineStr">
         <is>
           <t>1/1/2021</t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="G134" s="3" t="inlineStr">
         <is>
           <t>6pm</t>
         </is>
       </c>
-      <c r="H68" s="3" t="inlineStr">
+      <c r="H134" s="3" t="inlineStr">
         <is>
           <t>1. White</t>
         </is>
       </c>
-      <c r="I68" s="3" t="n"/>
-      <c r="J68" s="3" t="n">
+      <c r="I134" s="3" t="n"/>
+      <c r="J134" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="K68" s="3" t="inlineStr">
+      <c r="K134" s="3" t="inlineStr">
         <is>
           <t>Stock opening</t>
         </is>
       </c>
-      <c r="L68" s="3" t="inlineStr">
+      <c r="L134" s="3" t="inlineStr">
         <is>
           <t>1. Shared</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
         <is>
           <t>Person2</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B135" s="3" t="inlineStr">
         <is>
           <t>someone2@example.com</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C135" s="3" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D69" s="5" t="inlineStr">
+      <c r="D135" s="5" t="inlineStr">
         <is>
           <t>1/1/2021</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E135" s="3" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F69" s="5" t="inlineStr">
+      <c r="F135" s="5" t="inlineStr">
         <is>
           <t>1/1/2021</t>
         </is>
       </c>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="G135" s="3" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="H69" s="3" t="inlineStr">
+      <c r="H135" s="3" t="inlineStr">
         <is>
           <t>1. White</t>
         </is>
       </c>
-      <c r="I69" s="3" t="n"/>
-      <c r="J69" s="3" t="n">
+      <c r="I135" s="3" t="n"/>
+      <c r="J135" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="K69" s="3" t="inlineStr">
+      <c r="K135" s="3" t="inlineStr">
         <is>
           <t>Match sales report</t>
         </is>
       </c>
-      <c r="L69" s="3" t="inlineStr">
+      <c r="L135" s="3" t="inlineStr">
         <is>
           <t>1. Shared</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
         <is>
           <t>Person3</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B136" s="3" t="inlineStr">
         <is>
           <t>someone3@example.com</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C136" s="3" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="D70" s="5" t="inlineStr">
+      <c r="D136" s="5" t="inlineStr">
         <is>
           <t>1/1/2021</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E136" s="3" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="F70" s="5" t="inlineStr">
+      <c r="F136" s="5" t="inlineStr">
         <is>
           <t>1/1/2021</t>
         </is>
       </c>
-      <c r="G70" s="3" t="inlineStr">
+      <c r="G136" s="3" t="inlineStr">
         <is>
           <t>6pm</t>
         </is>
       </c>
-      <c r="H70" s="3" t="inlineStr">
+      <c r="H136" s="3" t="inlineStr">
         <is>
           <t>1. White</t>
         </is>
       </c>
-      <c r="I70" s="3" t="n"/>
-      <c r="J70" s="3" t="n">
+      <c r="I136" s="3" t="n"/>
+      <c r="J136" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="K70" s="3" t="inlineStr">
+      <c r="K136" s="3" t="inlineStr">
         <is>
           <t>Stock opening</t>
         </is>
       </c>
-      <c r="L70" s="3" t="inlineStr">
+      <c r="L136" s="3" t="inlineStr">
         <is>
           <t>1. Shared</t>
         </is>

--- a/team_file.xlsx
+++ b/team_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,15 +12,13 @@
     <sheet name="Members" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,20 +55,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +436,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="200" customWidth="1" min="1" max="1"/>
   </cols>
@@ -449,7 +448,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="158.4" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -477,26 +476,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="9.140625" customWidth="1" min="1" max="1"/>
-    <col width="24.3498229980469" customWidth="1" min="2" max="2"/>
-    <col width="9.3005313873291" customWidth="1" min="3" max="3"/>
-    <col width="15.1350727081299" customWidth="1" min="4" max="4"/>
-    <col width="15.3151321411133" customWidth="1" min="5" max="5"/>
-    <col width="14.1559991836548" customWidth="1" min="6" max="6"/>
-    <col width="14.3360595703125" customWidth="1" min="7" max="7"/>
-    <col width="12.6316318511963" customWidth="1" min="8" max="8"/>
-    <col width="13.2577486038208" customWidth="1" min="9" max="9"/>
-    <col width="22.1533012390137" customWidth="1" min="10" max="10"/>
-    <col width="17.9004192352295" customWidth="1" min="11" max="11"/>
-    <col width="9.65758228302002" customWidth="1" min="12" max="12"/>
+    <col width="9.109375" customWidth="1" min="1" max="1"/>
+    <col width="24.33203125" customWidth="1" min="2" max="2"/>
+    <col width="9.33203125" customWidth="1" min="3" max="3"/>
+    <col width="15.109375" customWidth="1" min="4" max="4"/>
+    <col width="15.33203125" customWidth="1" min="5" max="5"/>
+    <col width="14.109375" customWidth="1" min="6" max="6"/>
+    <col width="14.33203125" customWidth="1" min="7" max="7"/>
+    <col width="12.6640625" customWidth="1" min="8" max="8"/>
+    <col width="13.21875" customWidth="1" min="9" max="9"/>
+    <col width="22.109375" customWidth="1" min="10" max="10"/>
+    <col width="17.88671875" customWidth="1" min="11" max="11"/>
+    <col width="9.6640625" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,7 +573,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021/01/04</t>
+          <t>2021/05/04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -584,12 +583,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021/01/04</t>
+          <t>2021/05/04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -606,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021/01/05</t>
+          <t>2021/05/05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -616,12 +625,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021/01/05</t>
+          <t>2021/05/05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -638,7 +657,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/05/06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,12 +667,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/05/06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -670,7 +699,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021/01/10</t>
+          <t>2021/05/10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -680,12 +709,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021/01/10</t>
+          <t>2021/05/10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -702,7 +741,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021/01/11</t>
+          <t>2021/05/11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -712,12 +751,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021/01/11</t>
+          <t>2021/05/11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -734,7 +783,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021/01/12</t>
+          <t>2021/05/12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -744,12 +793,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021/01/12</t>
+          <t>2021/05/12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -766,7 +825,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021/01/16</t>
+          <t>2021/05/16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -776,12 +835,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021/01/16</t>
+          <t>2021/05/16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -798,7 +867,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021/01/17</t>
+          <t>2021/05/17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,12 +877,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021/01/17</t>
+          <t>2021/05/17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -830,7 +909,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021/01/18</t>
+          <t>2021/05/18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -840,12 +919,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/01/18</t>
+          <t>2021/05/18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -862,7 +951,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021/01/22</t>
+          <t>2021/05/22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -872,12 +961,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/01/22</t>
+          <t>2021/05/22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -894,7 +993,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021/01/23</t>
+          <t>2021/05/23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -904,12 +1003,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/01/23</t>
+          <t>2021/05/23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -926,7 +1035,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/05/24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -936,12 +1045,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/05/24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -958,7 +1077,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021/01/28</t>
+          <t>2021/05/28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -968,12 +1087,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/01/28</t>
+          <t>2021/05/28</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -990,7 +1119,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021/01/29</t>
+          <t>2021/05/29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1000,12 +1129,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/01/29</t>
+          <t>2021/05/29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1161,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021/01/30</t>
+          <t>2021/05/30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1032,12 +1171,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/01/30</t>
+          <t>2021/05/30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1203,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021/01/01</t>
+          <t>2021/05/01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/01/01</t>
+          <t>2021/05/01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1240,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021/01/02</t>
+          <t>2021/05/02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/01/02</t>
+          <t>2021/05/02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1277,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2021/05/03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2021/05/03</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1314,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/05/07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/05/07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1351,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/05/08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/05/08</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1388,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/05/09</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/05/09</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1425,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/05/13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/05/13</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1462,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021/01/14</t>
+          <t>2021/05/14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/01/14</t>
+          <t>2021/05/14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1499,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021/01/15</t>
+          <t>2021/05/15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/01/15</t>
+          <t>2021/05/15</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1342,22 +1536,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021/01/19</t>
+          <t>2021/05/19</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/01/19</t>
+          <t>2021/05/19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1573,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/05/20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/05/20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1610,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/05/21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/05/21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1438,22 +1647,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021/01/25</t>
+          <t>2021/05/25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/01/25</t>
+          <t>2021/05/25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1470,22 +1684,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021/01/26</t>
+          <t>2021/05/26</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/01/26</t>
+          <t>2021/05/26</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1502,22 +1721,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/05/27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/05/27</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1534,22 +1758,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021/01/31</t>
+          <t>2021/05/31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/01/31</t>
+          <t>2021/05/31</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>07:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1796,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021/01/04</t>
+          <t>2021/05/04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1577,12 +1806,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/01/04</t>
+          <t>2021/05/04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1833,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021/01/05</t>
+          <t>2021/05/05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1609,12 +1843,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/01/05</t>
+          <t>2021/05/05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1870,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/05/06</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1641,12 +1880,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/05/06</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1907,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021/01/10</t>
+          <t>2021/05/10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1673,12 +1917,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/01/10</t>
+          <t>2021/05/10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1944,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021/01/11</t>
+          <t>2021/05/11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1705,12 +1954,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/01/11</t>
+          <t>2021/05/11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1981,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021/01/12</t>
+          <t>2021/05/12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1737,12 +1991,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/01/12</t>
+          <t>2021/05/12</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1759,7 +2018,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021/01/16</t>
+          <t>2021/05/16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1769,12 +2028,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/01/16</t>
+          <t>2021/05/16</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1791,7 +2055,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021/01/17</t>
+          <t>2021/05/17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1801,12 +2065,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/01/17</t>
+          <t>2021/05/17</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1823,7 +2092,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021/01/18</t>
+          <t>2021/05/18</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1833,12 +2102,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/01/18</t>
+          <t>2021/05/18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1855,7 +2129,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021/01/22</t>
+          <t>2021/05/22</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1865,12 +2139,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/01/22</t>
+          <t>2021/05/22</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1887,7 +2166,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021/01/23</t>
+          <t>2021/05/23</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1897,12 +2176,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/01/23</t>
+          <t>2021/05/23</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1919,7 +2203,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/05/24</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1929,12 +2213,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/05/24</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1951,7 +2240,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021/01/28</t>
+          <t>2021/05/28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1961,12 +2250,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/01/28</t>
+          <t>2021/05/28</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -1983,7 +2277,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021/01/29</t>
+          <t>2021/05/29</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1993,12 +2287,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/01/29</t>
+          <t>2021/05/29</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2314,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021/01/30</t>
+          <t>2021/05/30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2025,12 +2324,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/01/30</t>
+          <t>2021/05/30</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>23:00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3. Green</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2352,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2021/01/01</t>
+          <t>2021/05/01</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2058,12 +2362,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/01/01</t>
+          <t>2021/05/01</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2394,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021/01/02</t>
+          <t>2021/05/02</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2090,12 +2404,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/01/02</t>
+          <t>2021/05/02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2436,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2021/05/03</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2122,12 +2446,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2021/05/03</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2478,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/05/07</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2154,12 +2488,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/05/07</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2520,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/05/08</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2186,12 +2530,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/05/08</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2562,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/05/09</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2218,12 +2572,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/05/09</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2604,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/05/13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2250,12 +2614,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/05/13</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2646,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2021/01/14</t>
+          <t>2021/05/14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2282,12 +2656,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/01/14</t>
+          <t>2021/05/14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2688,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2021/01/15</t>
+          <t>2021/05/15</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2314,12 +2698,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/01/15</t>
+          <t>2021/05/15</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2730,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2021/01/19</t>
+          <t>2021/05/19</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2346,12 +2740,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021/01/19</t>
+          <t>2021/05/19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2772,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/05/20</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2378,12 +2782,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/05/20</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2814,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/05/21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2410,12 +2824,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/05/21</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2856,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2021/01/25</t>
+          <t>2021/05/25</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2442,12 +2866,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021/01/25</t>
+          <t>2021/05/25</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2898,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021/01/26</t>
+          <t>2021/05/26</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2474,12 +2908,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021/01/26</t>
+          <t>2021/05/26</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2940,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/05/27</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2506,12 +2950,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/05/27</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>15:00</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>FS-1</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2982,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2021/01/31</t>
+          <t>2021/05/31</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2538,7 +2992,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021/01/31</t>
+          <t>2021/05/31</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2546,2174 +3000,319 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>FS-1</t>
+        </is>
+      </c>
     </row>
     <row r="67"/>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2021/01/04</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2021/01/04</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2021/01/05</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2021/01/05</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2021/01/06</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2021/01/06</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2021/01/10</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2021/01/10</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2021/01/11</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2021/01/11</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2021/01/12</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2021/01/12</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2021/01/16</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2021/01/16</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2021/01/17</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2021/01/17</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2021/01/18</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2021/01/18</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2021/01/22</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2021/01/22</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2021/01/23</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2021/01/23</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2021/01/24</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2021/01/24</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2021/01/28</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2021/01/28</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2021/01/29</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2021/01/29</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Nodar Gelovani</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ngelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2021/01/30</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2021/01/30</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
     <row r="83"/>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2021/01/01</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2021/01/01</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2021/01/02</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2021/01/02</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2021/01/03</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2021/01/03</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2021/01/07</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2021/01/07</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2021/01/08</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2021/01/08</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2021/01/09</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2021/01/09</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2021/01/13</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2021/01/13</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2021/01/14</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2021/01/14</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2021/01/15</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2021/01/15</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2021/01/19</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2021/01/19</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2021/01/20</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2021/01/20</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2021/01/21</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2021/01/21</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2021/01/25</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2021/01/25</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2021/01/26</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2021/01/26</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2021/01/27</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2021/01/27</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Anastasia Ioseiani</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>aioseliani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2021/01/31</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2021/01/31</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-    </row>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
     <row r="100"/>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2021/01/04</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2021/01/04</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2021/01/05</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2021/01/05</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2021/01/06</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2021/01/06</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2021/01/10</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2021/01/10</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2021/01/11</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2021/01/11</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2021/01/12</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2021/01/12</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2021/01/16</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2021/01/16</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2021/01/17</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2021/01/17</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2021/01/18</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2021/01/18</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2021/01/22</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2021/01/22</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2021/01/23</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2021/01/23</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2021/01/24</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2021/01/24</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2021/01/28</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2021/01/28</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2021/01/29</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2021/01/29</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Giorgi Gelovani</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>ggelovani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2021/01/30</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2021/01/30</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-    </row>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
     <row r="116"/>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2021/01/01</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2021/01/01</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2021/01/02</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2021/01/02</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2021/01/03</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2021/01/03</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2021/01/07</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2021/01/07</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2021/01/08</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2021/01/08</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2021/01/09</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2021/01/09</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2021/01/13</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2021/01/13</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2021/01/14</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2021/01/14</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2021/01/15</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2021/01/15</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2021/01/19</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2021/01/19</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2021/01/20</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2021/01/20</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2021/01/21</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2021/01/21</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2021/01/25</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2021/01/25</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2021/01/26</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2021/01/26</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2021/01/27</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>2021/01/27</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Tamar Khardziani</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>tkhardziani@evolution.com</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2021/01/31</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2021/01/31</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
     <row r="133"/>
-    <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>Person1</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>someone1@example.com</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>Manager</t>
-        </is>
-      </c>
-      <c r="D134" s="5" t="inlineStr">
-        <is>
-          <t>1/1/2021</t>
-        </is>
-      </c>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>10am</t>
-        </is>
-      </c>
-      <c r="F134" s="5" t="inlineStr">
-        <is>
-          <t>1/1/2021</t>
-        </is>
-      </c>
-      <c r="G134" s="3" t="inlineStr">
-        <is>
-          <t>6pm</t>
-        </is>
-      </c>
-      <c r="H134" s="3" t="inlineStr">
-        <is>
-          <t>1. White</t>
-        </is>
-      </c>
-      <c r="I134" s="3" t="n"/>
-      <c r="J134" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="K134" s="3" t="inlineStr">
-        <is>
-          <t>Stock opening</t>
-        </is>
-      </c>
-      <c r="L134" s="3" t="inlineStr">
-        <is>
-          <t>1. Shared</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="3" t="inlineStr">
-        <is>
-          <t>Person2</t>
-        </is>
-      </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t>someone2@example.com</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="D135" s="5" t="inlineStr">
-        <is>
-          <t>1/1/2021</t>
-        </is>
-      </c>
-      <c r="E135" s="3" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="F135" s="5" t="inlineStr">
-        <is>
-          <t>1/1/2021</t>
-        </is>
-      </c>
-      <c r="G135" s="3" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="H135" s="3" t="inlineStr">
-        <is>
-          <t>1. White</t>
-        </is>
-      </c>
-      <c r="I135" s="3" t="n"/>
-      <c r="J135" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="K135" s="3" t="inlineStr">
-        <is>
-          <t>Match sales report</t>
-        </is>
-      </c>
-      <c r="L135" s="3" t="inlineStr">
-        <is>
-          <t>1. Shared</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="3" t="inlineStr">
-        <is>
-          <t>Person3</t>
-        </is>
-      </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t>someone3@example.com</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>Manager</t>
-        </is>
-      </c>
-      <c r="D136" s="5" t="inlineStr">
-        <is>
-          <t>1/1/2021</t>
-        </is>
-      </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="F136" s="5" t="inlineStr">
-        <is>
-          <t>1/1/2021</t>
-        </is>
-      </c>
-      <c r="G136" s="3" t="inlineStr">
-        <is>
-          <t>6pm</t>
-        </is>
-      </c>
-      <c r="H136" s="3" t="inlineStr">
-        <is>
-          <t>1. White</t>
-        </is>
-      </c>
-      <c r="I136" s="3" t="n"/>
-      <c r="J136" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="K136" s="3" t="inlineStr">
-        <is>
-          <t>Stock opening</t>
-        </is>
-      </c>
-      <c r="L136" s="3" t="inlineStr">
-        <is>
-          <t>1. Shared</t>
-        </is>
-      </c>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320">
+      <c r="A320" s="3" t="n"/>
+      <c r="B320" s="3" t="n"/>
+      <c r="C320" s="3" t="n"/>
+      <c r="D320" s="5" t="n"/>
+      <c r="E320" s="3" t="n"/>
+      <c r="F320" s="5" t="n"/>
+      <c r="G320" s="3" t="n"/>
+      <c r="H320" s="3" t="n"/>
+      <c r="I320" s="3" t="n"/>
+      <c r="J320" s="3" t="n"/>
+      <c r="K320" s="3" t="n"/>
+      <c r="L320" s="3" t="n"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="n"/>
+      <c r="B321" s="3" t="n"/>
+      <c r="C321" s="3" t="n"/>
+      <c r="D321" s="5" t="n"/>
+      <c r="E321" s="3" t="n"/>
+      <c r="F321" s="5" t="n"/>
+      <c r="G321" s="3" t="n"/>
+      <c r="H321" s="3" t="n"/>
+      <c r="I321" s="3" t="n"/>
+      <c r="J321" s="3" t="n"/>
+      <c r="K321" s="3" t="n"/>
+      <c r="L321" s="3" t="n"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="n"/>
+      <c r="B322" s="3" t="n"/>
+      <c r="C322" s="3" t="n"/>
+      <c r="D322" s="5" t="n"/>
+      <c r="E322" s="3" t="n"/>
+      <c r="F322" s="5" t="n"/>
+      <c r="G322" s="3" t="n"/>
+      <c r="H322" s="3" t="n"/>
+      <c r="I322" s="3" t="n"/>
+      <c r="J322" s="3" t="n"/>
+      <c r="K322" s="3" t="n"/>
+      <c r="L322" s="3" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="H2:H1048576" showErrorMessage="0" showInputMessage="1" allowBlank="0" type="list">
+  <dataValidations count="2">
+    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"1. White,2. Blue,3. Green,4. Purple,5. Pink,6. Yellow,7. Gray,8. DarkBlue,9. DarkGreen,10. DarkPurple,11. DarkPink,12. DarkYellow"</formula1>
     </dataValidation>
-    <dataValidation sqref="L2:L1048576" showErrorMessage="0" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"1. Shared,2. Not Shared"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2:B1048576" showErrorMessage="0" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>Members!B$2:B$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4732,10 +3331,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="9.64223575592041" customWidth="1" min="1" max="1"/>
-    <col width="23.3523349761963" customWidth="1" min="2" max="2"/>
+    <col width="9.6640625" customWidth="1" min="1" max="1"/>
+    <col width="23.33203125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4779,11 +3378,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17.5413227081299" customWidth="1" min="1" max="1"/>
-    <col width="25.7330055236816" customWidth="1" min="2" max="2"/>
-    <col width="25.7330055236816" customWidth="1" min="3" max="3"/>
+    <col width="17.5546875" customWidth="1" min="1" max="1"/>
+    <col width="25.77734375" customWidth="1" min="2" max="3"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/team_file.xlsx
+++ b/team_file.xlsx
@@ -1,31 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Shifts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Day Notes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Members" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shifts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day Notes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Members" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt formatCode="m/d/yyyy" numFmtId="164"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="11"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="0"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -47,29 +69,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+  <cellXfs count="15">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,30 +488,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="200" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" style="8" width="200.01"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="1" s="9">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Instructions</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="158.4" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+    <row customHeight="1" ht="158.4" r="2" s="9">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">
       -	Use the sample columns and data provided in these worksheets as a guide for entering your schedule info into an import file.
@@ -466,101 +528,103 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L322"/>
+  <dimension ref="A1:L454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="9.109375" customWidth="1" min="1" max="1"/>
-    <col width="24.33203125" customWidth="1" min="2" max="2"/>
-    <col width="9.33203125" customWidth="1" min="3" max="3"/>
-    <col width="15.109375" customWidth="1" min="4" max="4"/>
-    <col width="15.33203125" customWidth="1" min="5" max="5"/>
-    <col width="14.109375" customWidth="1" min="6" max="6"/>
-    <col width="14.33203125" customWidth="1" min="7" max="7"/>
-    <col width="12.6640625" customWidth="1" min="8" max="8"/>
-    <col width="13.21875" customWidth="1" min="9" max="9"/>
-    <col width="22.109375" customWidth="1" min="10" max="10"/>
-    <col width="17.88671875" customWidth="1" min="11" max="11"/>
-    <col width="9.6640625" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" style="8" width="9.119999999999999"/>
+    <col customWidth="1" max="2" min="2" style="8" width="24.34"/>
+    <col customWidth="1" max="3" min="3" style="8" width="9.33"/>
+    <col customWidth="1" max="4" min="4" style="8" width="15.11"/>
+    <col customWidth="1" max="5" min="5" style="8" width="15.34"/>
+    <col customWidth="1" max="6" min="6" style="8" width="14.11"/>
+    <col customWidth="1" max="7" min="7" style="8" width="14.35"/>
+    <col customWidth="1" max="8" min="8" style="8" width="12.66"/>
+    <col customWidth="1" max="9" min="9" style="8" width="13.22"/>
+    <col customWidth="1" max="10" min="10" style="8" width="22.11"/>
+    <col customWidth="1" max="11" min="11" style="8" width="17.89"/>
+    <col customWidth="1" max="12" min="12" style="8" width="9.66"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="1" s="9">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Work Email</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>Shift Start Date</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="12" t="inlineStr">
         <is>
           <t>Shift Start Time</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>Shift End Date</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>Shift End Time</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Theme Color</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>Custom Label</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>Unpaid Break (minutes)</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>Shared</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" ht="13.8" r="2" s="9">
       <c r="A2" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -573,7 +637,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021/05/04</t>
+          <t>2021/01/04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -583,7 +647,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021/05/04</t>
+          <t>2021/01/04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,13 +660,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row customHeight="1" ht="13.8" r="3" s="9">
       <c r="A3" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -615,7 +674,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021/05/05</t>
+          <t>2021/01/05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -625,7 +684,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021/05/05</t>
+          <t>2021/01/05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -638,13 +697,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row customHeight="1" ht="13.8" r="4" s="9">
       <c r="A4" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -657,7 +711,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021/05/06</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -667,7 +721,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021/05/06</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -680,13 +734,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="9">
       <c r="A5" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -699,7 +748,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021/05/10</t>
+          <t>2021/01/10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -709,7 +758,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021/05/10</t>
+          <t>2021/01/10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -722,13 +771,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row customHeight="1" ht="13.8" r="6" s="9">
       <c r="A6" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -741,7 +785,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021/05/11</t>
+          <t>2021/01/11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -751,7 +795,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021/05/11</t>
+          <t>2021/01/11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -764,13 +808,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row customHeight="1" ht="13.8" r="7" s="9">
       <c r="A7" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -783,7 +822,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021/05/12</t>
+          <t>2021/01/12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -793,7 +832,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021/05/12</t>
+          <t>2021/01/12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -806,13 +845,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row customHeight="1" ht="13.8" r="8" s="9">
       <c r="A8" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -825,7 +859,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021/05/16</t>
+          <t>2021/01/16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -835,7 +869,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021/05/16</t>
+          <t>2021/01/16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -848,13 +882,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -867,7 +896,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021/05/17</t>
+          <t>2021/01/17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -877,7 +906,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021/05/17</t>
+          <t>2021/01/17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -890,13 +919,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row customHeight="1" ht="13.8" r="10" s="9">
       <c r="A10" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -909,7 +933,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021/05/18</t>
+          <t>2021/01/18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -919,7 +943,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/05/18</t>
+          <t>2021/01/18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -932,13 +956,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row customHeight="1" ht="13.8" r="11" s="9">
       <c r="A11" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -951,7 +970,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021/05/22</t>
+          <t>2021/01/22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -961,7 +980,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/05/22</t>
+          <t>2021/01/22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -974,13 +993,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="9">
       <c r="A12" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -993,7 +1007,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021/05/23</t>
+          <t>2021/01/23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1003,7 +1017,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/05/23</t>
+          <t>2021/01/23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1016,13 +1030,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row customHeight="1" ht="13.8" r="13" s="9">
       <c r="A13" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1035,7 +1044,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021/05/24</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1045,7 +1054,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/05/24</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1058,13 +1067,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row customHeight="1" ht="13.8" r="14" s="9">
       <c r="A14" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1077,7 +1081,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021/05/28</t>
+          <t>2021/01/28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1087,7 +1091,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/05/28</t>
+          <t>2021/01/28</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1100,13 +1104,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row customHeight="1" ht="13.8" r="15" s="9">
       <c r="A15" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1119,7 +1118,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021/05/29</t>
+          <t>2021/01/29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1129,7 +1128,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/05/29</t>
+          <t>2021/01/29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1142,13 +1141,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row customHeight="1" ht="13.8" r="16" s="9">
       <c r="A16" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1161,7 +1155,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021/05/30</t>
+          <t>2021/01/30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1171,7 +1165,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/05/30</t>
+          <t>2021/01/30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1184,13 +1178,9 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row customHeight="1" ht="13.8" r="17" s="9"/>
+    <row customHeight="1" ht="13.8" r="18" s="9">
       <c r="A18" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1203,7 +1193,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021/05/01</t>
+          <t>2021/01/01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1213,7 +1203,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/05/01</t>
+          <t>2021/01/01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1227,7 +1217,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
+    <row customHeight="1" ht="13.8" r="19" s="9">
       <c r="A19" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1240,7 +1230,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021/05/02</t>
+          <t>2021/01/02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1250,7 +1240,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/05/02</t>
+          <t>2021/01/02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1264,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row customHeight="1" ht="13.8" r="20" s="9">
       <c r="A20" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1277,7 +1267,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021/05/03</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1287,7 +1277,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/05/03</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1301,7 +1291,7 @@
         </is>
       </c>
     </row>
-    <row r="21">
+    <row customHeight="1" ht="13.8" r="21" s="9">
       <c r="A21" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1314,7 +1304,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021/05/07</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1324,7 +1314,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/05/07</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1338,7 +1328,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row customHeight="1" ht="13.8" r="22" s="9">
       <c r="A22" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1351,7 +1341,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021/05/08</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1361,7 +1351,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/05/08</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1375,7 +1365,7 @@
         </is>
       </c>
     </row>
-    <row r="23">
+    <row customHeight="1" ht="13.8" r="23" s="9">
       <c r="A23" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1388,7 +1378,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021/05/09</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1398,7 +1388,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/05/09</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1412,7 +1402,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
+    <row customHeight="1" ht="13.8" r="24" s="9">
       <c r="A24" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1425,7 +1415,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021/05/13</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1435,7 +1425,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/05/13</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1449,7 +1439,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row customHeight="1" ht="13.8" r="25" s="9">
       <c r="A25" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1462,7 +1452,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021/05/14</t>
+          <t>2021/01/14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1472,7 +1462,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/05/14</t>
+          <t>2021/01/14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1486,7 +1476,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
+    <row customHeight="1" ht="13.8" r="26" s="9">
       <c r="A26" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1499,7 +1489,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021/05/15</t>
+          <t>2021/01/15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1509,7 +1499,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/05/15</t>
+          <t>2021/01/15</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1523,7 +1513,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
+    <row customHeight="1" ht="13.8" r="27" s="9">
       <c r="A27" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1536,7 +1526,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021/05/19</t>
+          <t>2021/01/19</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1546,7 +1536,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/05/19</t>
+          <t>2021/01/19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1560,7 +1550,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row customHeight="1" ht="13.8" r="28" s="9">
       <c r="A28" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1573,7 +1563,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021/05/20</t>
+          <t>2021/01/20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1583,7 +1573,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/05/20</t>
+          <t>2021/01/20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1597,7 +1587,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
+    <row customHeight="1" ht="13.8" r="29" s="9">
       <c r="A29" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1610,7 +1600,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021/05/21</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1620,7 +1610,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/05/21</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1634,7 +1624,7 @@
         </is>
       </c>
     </row>
-    <row r="30">
+    <row customHeight="1" ht="13.8" r="30" s="9">
       <c r="A30" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1647,7 +1637,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021/05/25</t>
+          <t>2021/01/25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1657,7 +1647,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/05/25</t>
+          <t>2021/01/25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1671,7 +1661,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row customHeight="1" ht="13.8" r="31" s="9">
       <c r="A31" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1684,7 +1674,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021/05/26</t>
+          <t>2021/01/26</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1694,7 +1684,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/05/26</t>
+          <t>2021/01/26</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1708,7 +1698,7 @@
         </is>
       </c>
     </row>
-    <row r="32">
+    <row customHeight="1" ht="13.8" r="32" s="9">
       <c r="A32" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1721,7 +1711,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021/05/27</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1731,7 +1721,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/05/27</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1745,7 +1735,7 @@
         </is>
       </c>
     </row>
-    <row r="33">
+    <row customHeight="1" ht="13.8" r="33" s="9">
       <c r="A33" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1758,7 +1748,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021/05/31</t>
+          <t>2021/01/31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1768,7 +1758,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/05/31</t>
+          <t>2021/01/31</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1782,8 +1772,8 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35">
+    <row customHeight="1" ht="13.8" r="34" s="9"/>
+    <row customHeight="1" ht="13.8" r="35" s="9">
       <c r="A35" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1796,7 +1786,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021/05/04</t>
+          <t>2021/01/04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1806,7 +1796,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/05/04</t>
+          <t>2021/01/04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1820,7 +1810,7 @@
         </is>
       </c>
     </row>
-    <row r="36">
+    <row customHeight="1" ht="13.8" r="36" s="9">
       <c r="A36" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1833,7 +1823,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021/05/05</t>
+          <t>2021/01/05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1843,7 +1833,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/05/05</t>
+          <t>2021/01/05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1857,7 +1847,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row customHeight="1" ht="13.8" r="37" s="9">
       <c r="A37" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1870,7 +1860,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021/05/06</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1880,7 +1870,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/05/06</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1894,7 +1884,7 @@
         </is>
       </c>
     </row>
-    <row r="38">
+    <row customHeight="1" ht="13.8" r="38" s="9">
       <c r="A38" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1907,7 +1897,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021/05/10</t>
+          <t>2021/01/10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1917,7 +1907,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/05/10</t>
+          <t>2021/01/10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1931,7 +1921,7 @@
         </is>
       </c>
     </row>
-    <row r="39">
+    <row customHeight="1" ht="13.8" r="39" s="9">
       <c r="A39" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1944,7 +1934,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021/05/11</t>
+          <t>2021/01/11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1954,7 +1944,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/05/11</t>
+          <t>2021/01/11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1968,7 +1958,7 @@
         </is>
       </c>
     </row>
-    <row r="40">
+    <row customHeight="1" ht="13.8" r="40" s="9">
       <c r="A40" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1981,7 +1971,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021/05/12</t>
+          <t>2021/01/12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1991,7 +1981,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/05/12</t>
+          <t>2021/01/12</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2005,7 +1995,7 @@
         </is>
       </c>
     </row>
-    <row r="41">
+    <row customHeight="1" ht="13.8" r="41" s="9">
       <c r="A41" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2018,7 +2008,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021/05/16</t>
+          <t>2021/01/16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2028,7 +2018,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/05/16</t>
+          <t>2021/01/16</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2042,7 +2032,7 @@
         </is>
       </c>
     </row>
-    <row r="42">
+    <row customHeight="1" ht="13.8" r="42" s="9">
       <c r="A42" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2055,7 +2045,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021/05/17</t>
+          <t>2021/01/17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2065,7 +2055,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/05/17</t>
+          <t>2021/01/17</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2079,7 +2069,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row customHeight="1" ht="13.8" r="43" s="9">
       <c r="A43" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2092,7 +2082,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021/05/18</t>
+          <t>2021/01/18</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2102,7 +2092,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/05/18</t>
+          <t>2021/01/18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2116,7 +2106,7 @@
         </is>
       </c>
     </row>
-    <row r="44">
+    <row customHeight="1" ht="13.8" r="44" s="9">
       <c r="A44" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2129,7 +2119,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021/05/22</t>
+          <t>2021/01/22</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2139,7 +2129,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/05/22</t>
+          <t>2021/01/22</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2153,7 +2143,7 @@
         </is>
       </c>
     </row>
-    <row r="45">
+    <row customHeight="1" ht="13.8" r="45" s="9">
       <c r="A45" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2166,7 +2156,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021/05/23</t>
+          <t>2021/01/23</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2176,7 +2166,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/05/23</t>
+          <t>2021/01/23</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2190,7 +2180,7 @@
         </is>
       </c>
     </row>
-    <row r="46">
+    <row customHeight="1" ht="13.8" r="46" s="9">
       <c r="A46" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2203,7 +2193,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021/05/24</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2213,7 +2203,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/05/24</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2227,7 +2217,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row customHeight="1" ht="13.8" r="47" s="9">
       <c r="A47" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2240,7 +2230,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021/05/28</t>
+          <t>2021/01/28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2250,7 +2240,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/05/28</t>
+          <t>2021/01/28</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2264,7 +2254,7 @@
         </is>
       </c>
     </row>
-    <row r="48">
+    <row customHeight="1" ht="13.8" r="48" s="9">
       <c r="A48" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2277,7 +2267,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021/05/29</t>
+          <t>2021/01/29</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2287,7 +2277,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/05/29</t>
+          <t>2021/01/29</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2301,7 +2291,7 @@
         </is>
       </c>
     </row>
-    <row r="49">
+    <row customHeight="1" ht="13.8" r="49" s="9">
       <c r="A49" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2314,7 +2304,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021/05/30</t>
+          <t>2021/01/30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2324,7 +2314,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/05/30</t>
+          <t>2021/01/30</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2338,8 +2328,8 @@
         </is>
       </c>
     </row>
-    <row r="50"/>
-    <row r="51">
+    <row customHeight="1" ht="13.8" r="50" s="9"/>
+    <row customHeight="1" ht="13.8" r="51" s="9">
       <c r="A51" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2352,7 +2342,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2021/05/01</t>
+          <t>2021/01/01</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2362,7 +2352,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/05/01</t>
+          <t>2021/01/01</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2375,13 +2365,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
+    </row>
+    <row customHeight="1" ht="13.8" r="52" s="9">
       <c r="A52" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2394,7 +2379,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021/05/02</t>
+          <t>2021/01/02</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2404,7 +2389,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/05/02</t>
+          <t>2021/01/02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2417,13 +2402,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
+    </row>
+    <row customHeight="1" ht="13.8" r="53" s="9">
       <c r="A53" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2436,7 +2416,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021/05/03</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2446,7 +2426,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/05/03</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2459,13 +2439,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
+    </row>
+    <row customHeight="1" ht="13.8" r="54" s="9">
       <c r="A54" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2478,7 +2453,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021/05/07</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2488,7 +2463,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/05/07</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2501,13 +2476,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
+    </row>
+    <row customHeight="1" ht="13.8" r="55" s="9">
       <c r="A55" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2520,7 +2490,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021/05/08</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2530,7 +2500,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/05/08</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2543,13 +2513,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
+    </row>
+    <row customHeight="1" ht="13.8" r="56" s="9">
       <c r="A56" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2562,7 +2527,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2021/05/09</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2572,7 +2537,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/05/09</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2585,13 +2550,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
+    </row>
+    <row customHeight="1" ht="13.8" r="57" s="9">
       <c r="A57" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2604,7 +2564,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021/05/13</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2614,7 +2574,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/05/13</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2627,13 +2587,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
+    </row>
+    <row customHeight="1" ht="13.8" r="58" s="9">
       <c r="A58" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2646,7 +2601,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2021/05/14</t>
+          <t>2021/01/14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2656,7 +2611,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/05/14</t>
+          <t>2021/01/14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2669,13 +2624,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
+    </row>
+    <row customHeight="1" ht="13.8" r="59" s="9">
       <c r="A59" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2688,7 +2638,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2021/05/15</t>
+          <t>2021/01/15</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2698,7 +2648,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/05/15</t>
+          <t>2021/01/15</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2711,13 +2661,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
+    </row>
+    <row customHeight="1" ht="13.8" r="60" s="9">
       <c r="A60" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2730,7 +2675,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2021/05/19</t>
+          <t>2021/01/19</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2740,7 +2685,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021/05/19</t>
+          <t>2021/01/19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2753,13 +2698,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
+    </row>
+    <row customHeight="1" ht="13.8" r="61" s="9">
       <c r="A61" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2772,7 +2712,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2021/05/20</t>
+          <t>2021/01/20</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2782,7 +2722,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021/05/20</t>
+          <t>2021/01/20</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2795,13 +2735,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
+    </row>
+    <row customHeight="1" ht="13.8" r="62" s="9">
       <c r="A62" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2814,7 +2749,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2021/05/21</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2824,7 +2759,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021/05/21</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2837,13 +2772,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
+    </row>
+    <row customHeight="1" ht="13.8" r="63" s="9">
       <c r="A63" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2856,7 +2786,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2021/05/25</t>
+          <t>2021/01/25</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2866,7 +2796,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021/05/25</t>
+          <t>2021/01/25</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2879,13 +2809,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
+    </row>
+    <row customHeight="1" ht="13.8" r="64" s="9">
       <c r="A64" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2898,7 +2823,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021/05/26</t>
+          <t>2021/01/26</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2908,7 +2833,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021/05/26</t>
+          <t>2021/01/26</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2921,13 +2846,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
+    </row>
+    <row customHeight="1" ht="13.8" r="65" s="9">
       <c r="A65" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2940,7 +2860,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2021/05/27</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2950,7 +2870,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021/05/27</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2963,13 +2883,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
+    </row>
+    <row customHeight="1" ht="13.8" r="66" s="9">
       <c r="A66" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2982,7 +2897,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2021/05/31</t>
+          <t>2021/01/31</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2992,7 +2907,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021/05/31</t>
+          <t>2021/01/31</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3005,13 +2920,8 @@
           <t>2. Blue</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>FS-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="67"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="67" s="9"/>
     <row r="68"/>
     <row r="69"/>
     <row r="70"/>
@@ -3264,212 +3174,352 @@
     <row r="317"/>
     <row r="318"/>
     <row r="319"/>
-    <row r="320">
-      <c r="A320" s="3" t="n"/>
-      <c r="B320" s="3" t="n"/>
-      <c r="C320" s="3" t="n"/>
-      <c r="D320" s="5" t="n"/>
-      <c r="E320" s="3" t="n"/>
-      <c r="F320" s="5" t="n"/>
-      <c r="G320" s="3" t="n"/>
-      <c r="H320" s="3" t="n"/>
-      <c r="I320" s="3" t="n"/>
-      <c r="J320" s="3" t="n"/>
-      <c r="K320" s="3" t="n"/>
-      <c r="L320" s="3" t="n"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="3" t="n"/>
-      <c r="B321" s="3" t="n"/>
-      <c r="C321" s="3" t="n"/>
-      <c r="D321" s="5" t="n"/>
-      <c r="E321" s="3" t="n"/>
-      <c r="F321" s="5" t="n"/>
-      <c r="G321" s="3" t="n"/>
-      <c r="H321" s="3" t="n"/>
-      <c r="I321" s="3" t="n"/>
-      <c r="J321" s="3" t="n"/>
-      <c r="K321" s="3" t="n"/>
-      <c r="L321" s="3" t="n"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="3" t="n"/>
-      <c r="B322" s="3" t="n"/>
-      <c r="C322" s="3" t="n"/>
-      <c r="D322" s="5" t="n"/>
-      <c r="E322" s="3" t="n"/>
-      <c r="F322" s="5" t="n"/>
-      <c r="G322" s="3" t="n"/>
-      <c r="H322" s="3" t="n"/>
-      <c r="I322" s="3" t="n"/>
-      <c r="J322" s="3" t="n"/>
-      <c r="K322" s="3" t="n"/>
-      <c r="L322" s="3" t="n"/>
+    <row customHeight="1" ht="14.4" r="320" s="9"/>
+    <row customHeight="1" ht="14.4" r="321" s="9"/>
+    <row customHeight="1" ht="14.4" r="322" s="9"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row customHeight="1" ht="14.4" r="386" s="9"/>
+    <row customHeight="1" ht="14.4" r="387" s="9"/>
+    <row customHeight="1" ht="14.4" r="388" s="9"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452">
+      <c r="A452" s="11" t="n"/>
+      <c r="B452" s="11" t="n"/>
+      <c r="C452" s="11" t="n"/>
+      <c r="D452" s="13" t="n"/>
+      <c r="E452" s="11" t="n"/>
+      <c r="F452" s="13" t="n"/>
+      <c r="G452" s="11" t="n"/>
+      <c r="H452" s="11" t="n"/>
+      <c r="I452" s="11" t="n"/>
+      <c r="J452" s="11" t="n"/>
+      <c r="K452" s="11" t="n"/>
+      <c r="L452" s="11" t="n"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="11" t="n"/>
+      <c r="B453" s="11" t="n"/>
+      <c r="C453" s="11" t="n"/>
+      <c r="D453" s="13" t="n"/>
+      <c r="E453" s="11" t="n"/>
+      <c r="F453" s="13" t="n"/>
+      <c r="G453" s="11" t="n"/>
+      <c r="H453" s="11" t="n"/>
+      <c r="I453" s="11" t="n"/>
+      <c r="J453" s="11" t="n"/>
+      <c r="K453" s="11" t="n"/>
+      <c r="L453" s="11" t="n"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="11" t="n"/>
+      <c r="B454" s="11" t="n"/>
+      <c r="C454" s="11" t="n"/>
+      <c r="D454" s="13" t="n"/>
+      <c r="E454" s="11" t="n"/>
+      <c r="F454" s="13" t="n"/>
+      <c r="G454" s="11" t="n"/>
+      <c r="H454" s="11" t="n"/>
+      <c r="I454" s="11" t="n"/>
+      <c r="J454" s="11" t="n"/>
+      <c r="K454" s="11" t="n"/>
+      <c r="L454" s="11" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation allowBlank="0" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="H2:H1001" type="list">
       <formula1>"1. White,2. Blue,3. Green,4. Purple,5. Pink,6. Yellow,7. Gray,8. DarkBlue,9. DarkGreen,10. DarkPurple,11. DarkPink,12. DarkYellow"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation allowBlank="0" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="L2:L1001" type="list">
       <formula1>"1. Shared,2. Not Shared"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="9.6640625" customWidth="1" min="1" max="1"/>
-    <col width="23.33203125" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" style="8" width="9.66"/>
+    <col customWidth="1" max="2" min="2" style="8" width="23.35"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="1" s="9">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="2" s="9">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>1/1/2021</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Sample notes for the day</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="17.5546875" customWidth="1" min="1" max="1"/>
-    <col width="25.77734375" customWidth="1" min="2" max="3"/>
+    <col customWidth="1" max="1" min="1" style="8" width="17.56"/>
+    <col customWidth="1" max="3" min="2" style="8" width="25.79"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="1" s="9">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Alias Email</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="2" s="9">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>ngelovani@evolution.com</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>ngelovani@evolution.com</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="3" s="9">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>Anastasia Ioseliani</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>aioseliani@evolution.com</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>aioseliani@evolution.com</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="4" s="9">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Tamari Khardziani</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>tkhardziani@evolution.com</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>tkhardziani@evolution.com</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="5" s="9">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>ggelovani@evolution.com</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>ggelovani@evolution.com</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/team_file.xlsx
+++ b/team_file.xlsx
@@ -495,10 +495,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="200.01"/>
   </cols>
@@ -540,15 +540,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L454"/>
+  <dimension ref="A1:L652"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A61" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A67" activeCellId="0" pane="topLeft" sqref="2:67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="9.119999999999999"/>
+    <col customWidth="1" max="1" min="1" style="8" width="9.130000000000001"/>
     <col customWidth="1" max="2" min="2" style="8" width="24.34"/>
     <col customWidth="1" max="3" min="3" style="8" width="9.33"/>
     <col customWidth="1" max="4" min="4" style="8" width="15.11"/>
@@ -2922,137 +2922,4601 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="67" s="9"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G68" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H68" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G69" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H69" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D70" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F70" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G70" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H70" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D71" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E71" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G71" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H71" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D72" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E72" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F72" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G72" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H72" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D73" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G73" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H73" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D74" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F74" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G74" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H74" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G75" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H75" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D76" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E76" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F76" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G76" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H76" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D77" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E77" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G77" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H77" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D78" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E78" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F78" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G78" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H78" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B79" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D79" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E79" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G79" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H79" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B80" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D80" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E80" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F80" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G80" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H80" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B81" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D81" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G81" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H81" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B82" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D82" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E82" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F82" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G82" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H82" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
     <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
+    <row r="84">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B84" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D84" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E84" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F84" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G84" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H84" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B85" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D85" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E85" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G85" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H85" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D86" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E86" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F86" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G86" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H86" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D87" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G87" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H87" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B88" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D88" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E88" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F88" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G88" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H88" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B89" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D89" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E89" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G89" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H89" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B90" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D90" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E90" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F90" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G90" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H90" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D91" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E91" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G91" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H91" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B92" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D92" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E92" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F92" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G92" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H92" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B93" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D93" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E93" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G93" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H93" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B94" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D94" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E94" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F94" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G94" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H94" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B95" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D95" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E95" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G95" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H95" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B96" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D96" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E96" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F96" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G96" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H96" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B97" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D97" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E97" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G97" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H97" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B98" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D98" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E98" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F98" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G98" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H98" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B99" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D99" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E99" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G99" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H99" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
     <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B101" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D101" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E101" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G101" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H101" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B102" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D102" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E102" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F102" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G102" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H102" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B103" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D103" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E103" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G103" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H103" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B104" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D104" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E104" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F104" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G104" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H104" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B105" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D105" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E105" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G105" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H105" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B106" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D106" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E106" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F106" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G106" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H106" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B107" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D107" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E107" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G107" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H107" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B108" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D108" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E108" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F108" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G108" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H108" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B109" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D109" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E109" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G109" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H109" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B110" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D110" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E110" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F110" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G110" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H110" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B111" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D111" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E111" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G111" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H111" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B112" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D112" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E112" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F112" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G112" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H112" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B113" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D113" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E113" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G113" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H113" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B114" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D114" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E114" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F114" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G114" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H114" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B115" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D115" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E115" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G115" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H115" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
     <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
+    <row r="117">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B117" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D117" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E117" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G117" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H117" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B118" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D118" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E118" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F118" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G118" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H118" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B119" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D119" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E119" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G119" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H119" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B120" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D120" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E120" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F120" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G120" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H120" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B121" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D121" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E121" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G121" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H121" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D122" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E122" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F122" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G122" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H122" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B123" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D123" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E123" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G123" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H123" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B124" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D124" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E124" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F124" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G124" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H124" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D125" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E125" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G125" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H125" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D126" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E126" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F126" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G126" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H126" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D127" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E127" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G127" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H127" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F128" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G128" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H128" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D129" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G129" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H129" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B130" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D130" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E130" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F130" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G130" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H130" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B131" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D131" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E131" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G131" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H131" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B132" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D132" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E132" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F132" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G132" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H132" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
     <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
+    <row r="134">
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D134" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E134" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F134" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G134" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H134" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B135" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D135" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E135" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G135" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H135" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B136" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D136" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E136" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F136" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G136" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H136" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B137" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D137" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E137" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G137" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H137" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B138" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D138" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E138" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F138" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G138" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H138" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B139" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D139" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E139" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G139" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H139" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B140" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D140" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E140" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F140" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G140" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H140" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B141" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D141" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E141" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G141" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H141" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B142" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D142" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E142" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F142" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G142" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H142" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B143" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D143" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E143" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G143" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H143" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B144" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D144" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E144" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F144" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G144" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H144" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B145" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D145" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E145" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G145" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H145" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B146" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D146" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E146" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F146" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G146" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H146" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B147" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D147" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E147" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G147" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H147" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B148" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D148" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E148" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F148" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G148" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H148" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
     <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
+    <row r="150">
+      <c r="A150" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B150" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D150" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E150" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F150" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G150" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H150" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B151" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D151" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E151" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G151" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H151" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B152" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D152" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E152" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F152" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G152" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H152" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B153" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D153" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E153" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G153" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H153" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B154" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D154" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E154" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F154" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G154" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H154" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B155" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D155" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E155" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G155" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H155" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B156" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D156" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E156" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F156" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G156" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H156" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B157" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D157" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E157" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G157" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H157" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B158" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D158" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E158" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F158" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G158" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H158" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B159" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D159" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E159" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G159" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H159" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B160" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D160" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E160" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F160" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G160" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H160" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B161" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D161" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E161" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G161" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H161" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B162" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D162" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E162" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F162" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G162" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H162" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B163" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D163" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E163" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G163" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H163" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B164" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D164" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E164" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F164" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G164" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H164" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B165" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D165" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E165" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F165" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G165" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H165" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
     <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
+    <row r="167">
+      <c r="A167" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B167" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D167" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E167" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F167" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G167" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H167" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B168" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D168" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E168" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F168" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G168" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H168" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B169" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D169" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E169" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F169" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G169" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H169" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B170" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D170" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E170" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F170" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G170" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H170" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B171" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D171" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E171" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F171" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G171" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H171" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B172" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D172" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E172" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F172" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G172" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H172" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B173" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D173" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E173" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F173" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G173" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H173" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B174" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D174" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E174" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F174" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G174" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H174" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B175" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D175" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E175" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F175" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G175" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H175" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B176" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D176" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E176" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F176" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G176" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H176" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B177" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D177" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E177" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F177" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G177" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H177" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B178" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D178" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E178" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F178" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G178" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H178" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B179" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D179" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E179" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F179" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G179" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H179" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B180" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D180" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E180" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F180" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G180" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H180" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B181" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D181" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E181" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F181" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G181" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H181" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
     <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
+    <row r="183">
+      <c r="A183" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B183" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D183" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E183" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F183" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G183" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H183" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B184" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D184" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E184" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F184" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G184" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H184" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B185" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D185" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E185" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F185" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G185" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H185" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B186" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D186" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E186" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F186" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G186" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H186" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B187" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D187" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E187" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F187" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G187" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H187" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B188" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D188" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E188" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F188" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G188" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H188" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B189" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D189" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E189" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F189" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G189" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H189" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B190" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D190" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E190" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F190" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G190" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H190" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B191" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D191" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E191" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F191" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G191" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H191" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B192" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D192" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E192" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F192" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G192" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H192" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B193" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D193" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E193" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F193" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G193" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H193" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B194" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D194" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E194" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F194" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G194" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H194" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B195" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D195" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E195" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F195" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G195" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H195" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B196" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D196" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E196" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F196" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G196" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H196" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B197" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D197" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E197" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F197" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G197" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H197" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B198" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D198" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E198" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F198" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G198" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H198" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
     <row r="199"/>
     <row r="200"/>
     <row r="201"/>
@@ -3306,47 +7770,245 @@
     <row r="449"/>
     <row r="450"/>
     <row r="451"/>
-    <row r="452">
-      <c r="A452" s="11" t="n"/>
-      <c r="B452" s="11" t="n"/>
-      <c r="C452" s="11" t="n"/>
-      <c r="D452" s="13" t="n"/>
-      <c r="E452" s="11" t="n"/>
-      <c r="F452" s="13" t="n"/>
-      <c r="G452" s="11" t="n"/>
-      <c r="H452" s="11" t="n"/>
-      <c r="I452" s="11" t="n"/>
-      <c r="J452" s="11" t="n"/>
-      <c r="K452" s="11" t="n"/>
-      <c r="L452" s="11" t="n"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="11" t="n"/>
-      <c r="B453" s="11" t="n"/>
-      <c r="C453" s="11" t="n"/>
-      <c r="D453" s="13" t="n"/>
-      <c r="E453" s="11" t="n"/>
-      <c r="F453" s="13" t="n"/>
-      <c r="G453" s="11" t="n"/>
-      <c r="H453" s="11" t="n"/>
-      <c r="I453" s="11" t="n"/>
-      <c r="J453" s="11" t="n"/>
-      <c r="K453" s="11" t="n"/>
-      <c r="L453" s="11" t="n"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="11" t="n"/>
-      <c r="B454" s="11" t="n"/>
-      <c r="C454" s="11" t="n"/>
-      <c r="D454" s="13" t="n"/>
-      <c r="E454" s="11" t="n"/>
-      <c r="F454" s="13" t="n"/>
-      <c r="G454" s="11" t="n"/>
-      <c r="H454" s="11" t="n"/>
-      <c r="I454" s="11" t="n"/>
-      <c r="J454" s="11" t="n"/>
-      <c r="K454" s="11" t="n"/>
-      <c r="L454" s="11" t="n"/>
+    <row customHeight="1" ht="14.4" r="452" s="9"/>
+    <row customHeight="1" ht="14.4" r="453" s="9"/>
+    <row customHeight="1" ht="14.4" r="454" s="9"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650">
+      <c r="A650" s="11" t="n"/>
+      <c r="B650" s="11" t="n"/>
+      <c r="C650" s="11" t="n"/>
+      <c r="D650" s="13" t="n"/>
+      <c r="E650" s="11" t="n"/>
+      <c r="F650" s="13" t="n"/>
+      <c r="G650" s="11" t="n"/>
+      <c r="H650" s="11" t="n"/>
+      <c r="I650" s="11" t="n"/>
+      <c r="J650" s="11" t="n"/>
+      <c r="K650" s="11" t="n"/>
+      <c r="L650" s="11" t="n"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="11" t="n"/>
+      <c r="B651" s="11" t="n"/>
+      <c r="C651" s="11" t="n"/>
+      <c r="D651" s="13" t="n"/>
+      <c r="E651" s="11" t="n"/>
+      <c r="F651" s="13" t="n"/>
+      <c r="G651" s="11" t="n"/>
+      <c r="H651" s="11" t="n"/>
+      <c r="I651" s="11" t="n"/>
+      <c r="J651" s="11" t="n"/>
+      <c r="K651" s="11" t="n"/>
+      <c r="L651" s="11" t="n"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="11" t="n"/>
+      <c r="B652" s="11" t="n"/>
+      <c r="C652" s="11" t="n"/>
+      <c r="D652" s="13" t="n"/>
+      <c r="E652" s="11" t="n"/>
+      <c r="F652" s="13" t="n"/>
+      <c r="G652" s="11" t="n"/>
+      <c r="H652" s="11" t="n"/>
+      <c r="I652" s="11" t="n"/>
+      <c r="J652" s="11" t="n"/>
+      <c r="K652" s="11" t="n"/>
+      <c r="L652" s="11" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3374,10 +8036,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="9.66"/>
     <col customWidth="1" max="2" min="2" style="8" width="23.35"/>
@@ -3423,10 +8085,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="17.56"/>
     <col customWidth="1" max="3" min="2" style="8" width="25.79"/>

--- a/team_file.xlsx
+++ b/team_file.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shifts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day Notes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Members" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Shifts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Day Notes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Members" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="m/d/yyyy" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -70,67 +70,67 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -494,23 +494,23 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:67 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="200.01"/>
+    <col width="200.01" customWidth="1" style="8" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.4" r="1" s="9">
+    <row r="1" ht="14.4" customHeight="1" s="9">
       <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Instructions</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="158.4" r="2" s="9">
+    <row r="2" ht="158.4" customHeight="1" s="9">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -528,9 +528,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -540,29 +540,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L652"/>
+  <dimension ref="A1:L718"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A61" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A67" activeCellId="0" pane="topLeft" sqref="2:67"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="2:67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="9.130000000000001"/>
-    <col customWidth="1" max="2" min="2" style="8" width="24.34"/>
-    <col customWidth="1" max="3" min="3" style="8" width="9.33"/>
-    <col customWidth="1" max="4" min="4" style="8" width="15.11"/>
-    <col customWidth="1" max="5" min="5" style="8" width="15.34"/>
-    <col customWidth="1" max="6" min="6" style="8" width="14.11"/>
-    <col customWidth="1" max="7" min="7" style="8" width="14.35"/>
-    <col customWidth="1" max="8" min="8" style="8" width="12.66"/>
-    <col customWidth="1" max="9" min="9" style="8" width="13.22"/>
-    <col customWidth="1" max="10" min="10" style="8" width="22.11"/>
-    <col customWidth="1" max="11" min="11" style="8" width="17.89"/>
-    <col customWidth="1" max="12" min="12" style="8" width="9.66"/>
+    <col width="9.130000000000001" customWidth="1" style="8" min="1" max="1"/>
+    <col width="24.34" customWidth="1" style="8" min="2" max="2"/>
+    <col width="9.33" customWidth="1" style="8" min="3" max="3"/>
+    <col width="15.11" customWidth="1" style="8" min="4" max="4"/>
+    <col width="15.34" customWidth="1" style="8" min="5" max="5"/>
+    <col width="14.11" customWidth="1" style="8" min="6" max="6"/>
+    <col width="14.35" customWidth="1" style="8" min="7" max="7"/>
+    <col width="12.66" customWidth="1" style="8" min="8" max="8"/>
+    <col width="13.22" customWidth="1" style="8" min="9" max="9"/>
+    <col width="22.11" customWidth="1" style="8" min="10" max="10"/>
+    <col width="17.89" customWidth="1" style="8" min="11" max="11"/>
+    <col width="9.66" customWidth="1" style="8" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.4" r="1" s="9">
+    <row r="1" ht="14.4" customHeight="1" s="9">
       <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Member</t>
@@ -624,7 +624,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="9">
+    <row r="2" ht="13.8" customHeight="1" s="9">
       <c r="A2" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -661,7 +661,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="9">
+    <row r="3" ht="13.8" customHeight="1" s="9">
       <c r="A3" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -698,7 +698,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="9">
+    <row r="4" ht="13.8" customHeight="1" s="9">
       <c r="A4" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -735,7 +735,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="9">
+    <row r="5" ht="13.8" customHeight="1" s="9">
       <c r="A5" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -772,7 +772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="9">
+    <row r="6" ht="13.8" customHeight="1" s="9">
       <c r="A6" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -809,7 +809,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="9">
+    <row r="7" ht="13.8" customHeight="1" s="9">
       <c r="A7" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -846,7 +846,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="9">
+    <row r="8" ht="13.8" customHeight="1" s="9">
       <c r="A8" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -883,7 +883,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="9">
+    <row r="9" ht="13.8" customHeight="1" s="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -920,7 +920,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="9">
+    <row r="10" ht="13.8" customHeight="1" s="9">
       <c r="A10" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -957,7 +957,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="9">
+    <row r="11" ht="13.8" customHeight="1" s="9">
       <c r="A11" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -994,7 +994,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="9">
+    <row r="12" ht="13.8" customHeight="1" s="9">
       <c r="A12" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="9">
+    <row r="13" ht="13.8" customHeight="1" s="9">
       <c r="A13" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="9">
+    <row r="14" ht="13.8" customHeight="1" s="9">
       <c r="A14" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="9">
+    <row r="15" ht="13.8" customHeight="1" s="9">
       <c r="A15" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="9">
+    <row r="16" ht="13.8" customHeight="1" s="9">
       <c r="A16" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -1179,8 +1179,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="9"/>
-    <row customHeight="1" ht="13.8" r="18" s="9">
+    <row r="17" ht="13.8" customHeight="1" s="9"/>
+    <row r="18" ht="13.8" customHeight="1" s="9">
       <c r="A18" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="9">
+    <row r="19" ht="13.8" customHeight="1" s="9">
       <c r="A19" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="9">
+    <row r="20" ht="13.8" customHeight="1" s="9">
       <c r="A20" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="9">
+    <row r="21" ht="13.8" customHeight="1" s="9">
       <c r="A21" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="9">
+    <row r="22" ht="13.8" customHeight="1" s="9">
       <c r="A22" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="9">
+    <row r="23" ht="13.8" customHeight="1" s="9">
       <c r="A23" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="9">
+    <row r="24" ht="13.8" customHeight="1" s="9">
       <c r="A24" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="9">
+    <row r="25" ht="13.8" customHeight="1" s="9">
       <c r="A25" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="9">
+    <row r="26" ht="13.8" customHeight="1" s="9">
       <c r="A26" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="9">
+    <row r="27" ht="13.8" customHeight="1" s="9">
       <c r="A27" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="9">
+    <row r="28" ht="13.8" customHeight="1" s="9">
       <c r="A28" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="9">
+    <row r="29" ht="13.8" customHeight="1" s="9">
       <c r="A29" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="9">
+    <row r="30" ht="13.8" customHeight="1" s="9">
       <c r="A30" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="9">
+    <row r="31" ht="13.8" customHeight="1" s="9">
       <c r="A31" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="9">
+    <row r="32" ht="13.8" customHeight="1" s="9">
       <c r="A32" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="9">
+    <row r="33" ht="13.8" customHeight="1" s="9">
       <c r="A33" t="inlineStr">
         <is>
           <t>Anastasia Ioseiani</t>
@@ -1772,8 +1772,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="9"/>
-    <row customHeight="1" ht="13.8" r="35" s="9">
+    <row r="34" ht="13.8" customHeight="1" s="9"/>
+    <row r="35" ht="13.8" customHeight="1" s="9">
       <c r="A35" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="9">
+    <row r="36" ht="13.8" customHeight="1" s="9">
       <c r="A36" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="9">
+    <row r="37" ht="13.8" customHeight="1" s="9">
       <c r="A37" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="9">
+    <row r="38" ht="13.8" customHeight="1" s="9">
       <c r="A38" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1921,7 +1921,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="9">
+    <row r="39" ht="13.8" customHeight="1" s="9">
       <c r="A39" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="9">
+    <row r="40" ht="13.8" customHeight="1" s="9">
       <c r="A40" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="9">
+    <row r="41" ht="13.8" customHeight="1" s="9">
       <c r="A41" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="9">
+    <row r="42" ht="13.8" customHeight="1" s="9">
       <c r="A42" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="9">
+    <row r="43" ht="13.8" customHeight="1" s="9">
       <c r="A43" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="9">
+    <row r="44" ht="13.8" customHeight="1" s="9">
       <c r="A44" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="9">
+    <row r="45" ht="13.8" customHeight="1" s="9">
       <c r="A45" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2180,7 +2180,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="9">
+    <row r="46" ht="13.8" customHeight="1" s="9">
       <c r="A46" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="9">
+    <row r="47" ht="13.8" customHeight="1" s="9">
       <c r="A47" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="9">
+    <row r="48" ht="13.8" customHeight="1" s="9">
       <c r="A48" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="9">
+    <row r="49" ht="13.8" customHeight="1" s="9">
       <c r="A49" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -2328,8 +2328,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="9"/>
-    <row customHeight="1" ht="13.8" r="51" s="9">
+    <row r="50" ht="13.8" customHeight="1" s="9"/>
+    <row r="51" ht="13.8" customHeight="1" s="9">
       <c r="A51" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="9">
+    <row r="52" ht="13.8" customHeight="1" s="9">
       <c r="A52" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="9">
+    <row r="53" ht="13.8" customHeight="1" s="9">
       <c r="A53" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="9">
+    <row r="54" ht="13.8" customHeight="1" s="9">
       <c r="A54" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="9">
+    <row r="55" ht="13.8" customHeight="1" s="9">
       <c r="A55" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2514,7 +2514,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="9">
+    <row r="56" ht="13.8" customHeight="1" s="9">
       <c r="A56" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="9">
+    <row r="57" ht="13.8" customHeight="1" s="9">
       <c r="A57" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="9">
+    <row r="58" ht="13.8" customHeight="1" s="9">
       <c r="A58" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="9">
+    <row r="59" ht="13.8" customHeight="1" s="9">
       <c r="A59" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="9">
+    <row r="60" ht="13.8" customHeight="1" s="9">
       <c r="A60" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="9">
+    <row r="61" ht="13.8" customHeight="1" s="9">
       <c r="A61" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="9">
+    <row r="62" ht="13.8" customHeight="1" s="9">
       <c r="A62" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="9">
+    <row r="63" ht="13.8" customHeight="1" s="9">
       <c r="A63" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="9">
+    <row r="64" ht="13.8" customHeight="1" s="9">
       <c r="A64" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="9">
+    <row r="65" ht="13.8" customHeight="1" s="9">
       <c r="A65" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="9">
+    <row r="66" ht="13.8" customHeight="1" s="9">
       <c r="A66" t="inlineStr">
         <is>
           <t>Tamar Khardziani</t>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="9"/>
+    <row r="67" ht="13.8" customHeight="1" s="9"/>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
@@ -7518,71 +7518,2303 @@
       </c>
     </row>
     <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
+    <row r="200">
+      <c r="A200" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B200" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D200" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E200" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F200" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G200" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H200" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B201" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D201" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E201" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F201" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G201" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H201" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B202" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D202" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E202" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F202" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G202" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H202" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B203" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D203" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E203" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F203" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G203" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H203" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B204" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D204" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E204" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F204" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G204" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H204" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B205" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D205" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E205" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F205" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G205" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H205" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B206" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D206" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E206" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F206" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G206" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H206" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B207" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D207" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E207" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F207" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G207" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H207" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B208" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D208" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E208" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F208" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G208" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H208" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B209" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D209" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E209" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F209" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G209" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H209" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B210" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D210" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E210" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F210" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G210" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H210" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B211" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D211" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E211" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F211" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G211" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H211" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B212" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D212" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E212" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F212" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G212" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H212" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B213" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D213" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E213" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F213" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G213" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H213" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="8" t="inlineStr">
+        <is>
+          <t>Nodar Gelovani</t>
+        </is>
+      </c>
+      <c r="B214" s="8" t="inlineStr">
+        <is>
+          <t>ngelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D214" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E214" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F214" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G214" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H214" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
     <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
+    <row r="216">
+      <c r="A216" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B216" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D216" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E216" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F216" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G216" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H216" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B217" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D217" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E217" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F217" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G217" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H217" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B218" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D218" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E218" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F218" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G218" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H218" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B219" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D219" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E219" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F219" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G219" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H219" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B220" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D220" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E220" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F220" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G220" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H220" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B221" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D221" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E221" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F221" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G221" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H221" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B222" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D222" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E222" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F222" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G222" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H222" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B223" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D223" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E223" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F223" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G223" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H223" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B224" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D224" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E224" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F224" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G224" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H224" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B225" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D225" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E225" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F225" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G225" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H225" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B226" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D226" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E226" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F226" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G226" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H226" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B227" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D227" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E227" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F227" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G227" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H227" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B228" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D228" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E228" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F228" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G228" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H228" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B229" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D229" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E229" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F229" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G229" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H229" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B230" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D230" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E230" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F230" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G230" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H230" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="8" t="inlineStr">
+        <is>
+          <t>Anastasia Ioseiani</t>
+        </is>
+      </c>
+      <c r="B231" s="8" t="inlineStr">
+        <is>
+          <t>aioseliani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D231" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E231" s="8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F231" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G231" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H231" s="8" t="inlineStr">
+        <is>
+          <t>5. Pink</t>
+        </is>
+      </c>
+    </row>
     <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
+    <row r="233">
+      <c r="A233" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B233" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D233" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="E233" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F233" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/04</t>
+        </is>
+      </c>
+      <c r="G233" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H233" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B234" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D234" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="E234" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F234" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/05</t>
+        </is>
+      </c>
+      <c r="G234" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H234" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B235" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D235" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="E235" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F235" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/06</t>
+        </is>
+      </c>
+      <c r="G235" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H235" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B236" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D236" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="E236" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F236" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/10</t>
+        </is>
+      </c>
+      <c r="G236" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H236" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B237" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D237" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="E237" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F237" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/11</t>
+        </is>
+      </c>
+      <c r="G237" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H237" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B238" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D238" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="E238" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F238" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/12</t>
+        </is>
+      </c>
+      <c r="G238" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H238" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B239" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D239" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="E239" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F239" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/16</t>
+        </is>
+      </c>
+      <c r="G239" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H239" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B240" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D240" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="E240" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F240" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/17</t>
+        </is>
+      </c>
+      <c r="G240" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H240" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B241" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D241" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="E241" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F241" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/18</t>
+        </is>
+      </c>
+      <c r="G241" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H241" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B242" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D242" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="E242" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F242" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/22</t>
+        </is>
+      </c>
+      <c r="G242" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H242" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B243" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D243" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="E243" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F243" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/23</t>
+        </is>
+      </c>
+      <c r="G243" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H243" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B244" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D244" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="E244" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F244" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/24</t>
+        </is>
+      </c>
+      <c r="G244" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H244" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B245" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D245" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="E245" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F245" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/28</t>
+        </is>
+      </c>
+      <c r="G245" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H245" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B246" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D246" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="E246" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F246" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/29</t>
+        </is>
+      </c>
+      <c r="G246" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H246" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="8" t="inlineStr">
+        <is>
+          <t>Giorgi Gelovani</t>
+        </is>
+      </c>
+      <c r="B247" s="8" t="inlineStr">
+        <is>
+          <t>ggelovani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D247" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="E247" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F247" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/30</t>
+        </is>
+      </c>
+      <c r="G247" s="8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H247" s="8" t="inlineStr">
+        <is>
+          <t>3. Green</t>
+        </is>
+      </c>
+    </row>
     <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
+    <row r="249">
+      <c r="A249" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B249" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D249" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="E249" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F249" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/01</t>
+        </is>
+      </c>
+      <c r="G249" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H249" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B250" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D250" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="E250" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F250" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/02</t>
+        </is>
+      </c>
+      <c r="G250" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H250" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B251" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D251" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="E251" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F251" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/03</t>
+        </is>
+      </c>
+      <c r="G251" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H251" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B252" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D252" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="E252" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F252" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/07</t>
+        </is>
+      </c>
+      <c r="G252" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H252" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B253" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D253" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="E253" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F253" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/08</t>
+        </is>
+      </c>
+      <c r="G253" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H253" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B254" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D254" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="E254" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F254" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/09</t>
+        </is>
+      </c>
+      <c r="G254" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H254" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B255" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D255" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="E255" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F255" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/13</t>
+        </is>
+      </c>
+      <c r="G255" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H255" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B256" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D256" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="E256" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F256" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/14</t>
+        </is>
+      </c>
+      <c r="G256" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H256" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B257" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D257" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="E257" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F257" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/15</t>
+        </is>
+      </c>
+      <c r="G257" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H257" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B258" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D258" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="E258" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F258" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/19</t>
+        </is>
+      </c>
+      <c r="G258" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H258" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B259" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D259" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="E259" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F259" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/20</t>
+        </is>
+      </c>
+      <c r="G259" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H259" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B260" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D260" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="E260" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F260" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/21</t>
+        </is>
+      </c>
+      <c r="G260" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H260" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B261" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D261" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="E261" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F261" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/25</t>
+        </is>
+      </c>
+      <c r="G261" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H261" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B262" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D262" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="E262" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F262" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/26</t>
+        </is>
+      </c>
+      <c r="G262" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H262" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B263" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D263" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="E263" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F263" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/27</t>
+        </is>
+      </c>
+      <c r="G263" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H263" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="8" t="inlineStr">
+        <is>
+          <t>Tamar Khardziani</t>
+        </is>
+      </c>
+      <c r="B264" s="8" t="inlineStr">
+        <is>
+          <t>tkhardziani@evolution.com</t>
+        </is>
+      </c>
+      <c r="D264" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="E264" s="8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="F264" s="8" t="inlineStr">
+        <is>
+          <t>2021/01/31</t>
+        </is>
+      </c>
+      <c r="G264" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H264" s="8" t="inlineStr">
+        <is>
+          <t>2. Blue</t>
+        </is>
+      </c>
+    </row>
     <row r="265"/>
     <row r="266"/>
     <row r="267"/>
@@ -7638,9 +9870,9 @@
     <row r="317"/>
     <row r="318"/>
     <row r="319"/>
-    <row customHeight="1" ht="14.4" r="320" s="9"/>
-    <row customHeight="1" ht="14.4" r="321" s="9"/>
-    <row customHeight="1" ht="14.4" r="322" s="9"/>
+    <row r="320" ht="14.4" customHeight="1" s="9"/>
+    <row r="321" ht="14.4" customHeight="1" s="9"/>
+    <row r="322" ht="14.4" customHeight="1" s="9"/>
     <row r="323"/>
     <row r="324"/>
     <row r="325"/>
@@ -7704,9 +9936,9 @@
     <row r="383"/>
     <row r="384"/>
     <row r="385"/>
-    <row customHeight="1" ht="14.4" r="386" s="9"/>
-    <row customHeight="1" ht="14.4" r="387" s="9"/>
-    <row customHeight="1" ht="14.4" r="388" s="9"/>
+    <row r="386" ht="14.4" customHeight="1" s="9"/>
+    <row r="387" ht="14.4" customHeight="1" s="9"/>
+    <row r="388" ht="14.4" customHeight="1" s="9"/>
     <row r="389"/>
     <row r="390"/>
     <row r="391"/>
@@ -7770,9 +10002,9 @@
     <row r="449"/>
     <row r="450"/>
     <row r="451"/>
-    <row customHeight="1" ht="14.4" r="452" s="9"/>
-    <row customHeight="1" ht="14.4" r="453" s="9"/>
-    <row customHeight="1" ht="14.4" r="454" s="9"/>
+    <row r="452" ht="14.4" customHeight="1" s="9"/>
+    <row r="453" ht="14.4" customHeight="1" s="9"/>
+    <row r="454" ht="14.4" customHeight="1" s="9"/>
     <row r="455"/>
     <row r="456"/>
     <row r="457"/>
@@ -7968,62 +10200,128 @@
     <row r="647"/>
     <row r="648"/>
     <row r="649"/>
-    <row r="650">
-      <c r="A650" s="11" t="n"/>
-      <c r="B650" s="11" t="n"/>
-      <c r="C650" s="11" t="n"/>
-      <c r="D650" s="13" t="n"/>
-      <c r="E650" s="11" t="n"/>
-      <c r="F650" s="13" t="n"/>
-      <c r="G650" s="11" t="n"/>
-      <c r="H650" s="11" t="n"/>
-      <c r="I650" s="11" t="n"/>
-      <c r="J650" s="11" t="n"/>
-      <c r="K650" s="11" t="n"/>
-      <c r="L650" s="11" t="n"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="11" t="n"/>
-      <c r="B651" s="11" t="n"/>
-      <c r="C651" s="11" t="n"/>
-      <c r="D651" s="13" t="n"/>
-      <c r="E651" s="11" t="n"/>
-      <c r="F651" s="13" t="n"/>
-      <c r="G651" s="11" t="n"/>
-      <c r="H651" s="11" t="n"/>
-      <c r="I651" s="11" t="n"/>
-      <c r="J651" s="11" t="n"/>
-      <c r="K651" s="11" t="n"/>
-      <c r="L651" s="11" t="n"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="11" t="n"/>
-      <c r="B652" s="11" t="n"/>
-      <c r="C652" s="11" t="n"/>
-      <c r="D652" s="13" t="n"/>
-      <c r="E652" s="11" t="n"/>
-      <c r="F652" s="13" t="n"/>
-      <c r="G652" s="11" t="n"/>
-      <c r="H652" s="11" t="n"/>
-      <c r="I652" s="11" t="n"/>
-      <c r="J652" s="11" t="n"/>
-      <c r="K652" s="11" t="n"/>
-      <c r="L652" s="11" t="n"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716">
+      <c r="A716" s="11" t="n"/>
+      <c r="B716" s="11" t="n"/>
+      <c r="C716" s="11" t="n"/>
+      <c r="D716" s="13" t="n"/>
+      <c r="E716" s="11" t="n"/>
+      <c r="F716" s="13" t="n"/>
+      <c r="G716" s="11" t="n"/>
+      <c r="H716" s="11" t="n"/>
+      <c r="I716" s="11" t="n"/>
+      <c r="J716" s="11" t="n"/>
+      <c r="K716" s="11" t="n"/>
+      <c r="L716" s="11" t="n"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="11" t="n"/>
+      <c r="B717" s="11" t="n"/>
+      <c r="C717" s="11" t="n"/>
+      <c r="D717" s="13" t="n"/>
+      <c r="E717" s="11" t="n"/>
+      <c r="F717" s="13" t="n"/>
+      <c r="G717" s="11" t="n"/>
+      <c r="H717" s="11" t="n"/>
+      <c r="I717" s="11" t="n"/>
+      <c r="J717" s="11" t="n"/>
+      <c r="K717" s="11" t="n"/>
+      <c r="L717" s="11" t="n"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="11" t="n"/>
+      <c r="B718" s="11" t="n"/>
+      <c r="C718" s="11" t="n"/>
+      <c r="D718" s="13" t="n"/>
+      <c r="E718" s="11" t="n"/>
+      <c r="F718" s="13" t="n"/>
+      <c r="G718" s="11" t="n"/>
+      <c r="H718" s="11" t="n"/>
+      <c r="I718" s="11" t="n"/>
+      <c r="J718" s="11" t="n"/>
+      <c r="K718" s="11" t="n"/>
+      <c r="L718" s="11" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="0" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="H2:H1001" type="list">
+    <dataValidation sqref="H2:H1001" showErrorMessage="1" showDropDown="0" showInputMessage="1" allowBlank="0" type="list" operator="between">
       <formula1>"1. White,2. Blue,3. Green,4. Purple,5. Pink,6. Yellow,7. Gray,8. DarkBlue,9. DarkGreen,10. DarkPurple,11. DarkPink,12. DarkYellow"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="L2:L1001" type="list">
+    <dataValidation sqref="L2:L1001" showErrorMessage="1" showDropDown="0" showInputMessage="1" allowBlank="0" type="list" operator="between">
       <formula1>"1. Shared,2. Not Shared"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -8035,17 +10333,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:67 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="9.66"/>
-    <col customWidth="1" max="2" min="2" style="8" width="23.35"/>
+    <col width="9.66" customWidth="1" style="8" min="1" max="1"/>
+    <col width="23.35" customWidth="1" style="8" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.4" r="1" s="9">
+    <row r="1" ht="14.4" customHeight="1" s="9">
       <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Date</t>
@@ -8057,7 +10355,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2" s="9">
+    <row r="2" ht="14.4" customHeight="1" s="9">
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t>1/1/2021</t>
@@ -8070,9 +10368,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -8084,17 +10382,17 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:67 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="17.56"/>
-    <col customWidth="1" max="3" min="2" style="8" width="25.79"/>
+    <col width="17.56" customWidth="1" style="8" min="1" max="1"/>
+    <col width="25.79" customWidth="1" style="8" min="2" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.4" r="1" s="9">
+    <row r="1" ht="14.4" customHeight="1" s="9">
       <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Name</t>
@@ -8111,7 +10409,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2" s="9">
+    <row r="2" ht="14.4" customHeight="1" s="9">
       <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Nodar Gelovani</t>
@@ -8128,7 +10426,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="3" s="9">
+    <row r="3" ht="14.4" customHeight="1" s="9">
       <c r="A3" s="8" t="inlineStr">
         <is>
           <t>Anastasia Ioseliani</t>
@@ -8145,7 +10443,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4" s="9">
+    <row r="4" ht="14.4" customHeight="1" s="9">
       <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Tamari Khardziani</t>
@@ -8162,7 +10460,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="5" s="9">
+    <row r="5" ht="14.4" customHeight="1" s="9">
       <c r="A5" s="8" t="inlineStr">
         <is>
           <t>Giorgi Gelovani</t>
@@ -8180,8 +10478,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/team_file.xlsx
+++ b/team_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngelovani\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngelovani\Desktop\schedule\schedule-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58A7E7-CB3C-462E-A930-8EB8C02B8890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF088378-F018-4706-984C-C4BEC79536C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Instructions</t>
   </si>
@@ -77,24 +77,6 @@
     <t>Shared</t>
   </si>
   <si>
-    <t>Nodar Gelovani</t>
-  </si>
-  <si>
-    <t>ngelovani@evolution.com</t>
-  </si>
-  <si>
-    <t>aioseliani@evolution.com</t>
-  </si>
-  <si>
-    <t>Giorgi Gelovani</t>
-  </si>
-  <si>
-    <t>ggelovani@evolution.com</t>
-  </si>
-  <si>
-    <t>tkhardziani@evolution.com</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -114,22 +96,13 @@
   </si>
   <si>
     <t>Alias Email</t>
-  </si>
-  <si>
-    <t>Anastasia Ioseliani</t>
-  </si>
-  <si>
-    <t>Tamari Khardziani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -174,10 +147,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -487,17 +460,17 @@
       <selection activeCellId="1" sqref="A2:XFD67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="200" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" customHeight="1">
+    <row r="1" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="158.44999999999999" customHeight="1">
+    <row r="2" spans="1:1" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -512,11 +485,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L718"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
@@ -532,7 +505,7 @@
     <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" customHeight="1">
+    <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -570,7 +543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.9" customHeight="1">
+    <row r="2" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="D2"/>
@@ -579,7 +552,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:12" ht="13.9" customHeight="1">
+    <row r="3" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="D3"/>
@@ -588,7 +561,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:12" ht="13.9" customHeight="1">
+    <row r="4" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="D4"/>
@@ -597,7 +570,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:12" ht="13.9" customHeight="1">
+    <row r="5" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="D5"/>
@@ -606,7 +579,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1">
+    <row r="6" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="D6"/>
@@ -615,7 +588,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:12" ht="13.9" customHeight="1">
+    <row r="7" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="D7"/>
@@ -624,7 +597,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="13.9" customHeight="1">
+    <row r="8" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="D8"/>
@@ -633,7 +606,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:12" ht="13.9" customHeight="1">
+    <row r="9" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="D9"/>
@@ -642,7 +615,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:12" ht="13.9" customHeight="1">
+    <row r="10" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="D10"/>
@@ -651,7 +624,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:12" ht="13.9" customHeight="1">
+    <row r="11" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="D11"/>
@@ -660,7 +633,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:12" ht="13.9" customHeight="1">
+    <row r="12" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="D12"/>
@@ -669,7 +642,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:12" ht="13.9" customHeight="1">
+    <row r="13" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="D13"/>
@@ -678,7 +651,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:12" ht="13.9" customHeight="1">
+    <row r="14" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="D14"/>
@@ -687,7 +660,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:12" ht="13.9" customHeight="1">
+    <row r="15" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="D15"/>
@@ -696,7 +669,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:12" ht="13.9" customHeight="1">
+    <row r="16" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="D16"/>
@@ -705,8 +678,8 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" ht="13.9" customHeight="1"/>
-    <row r="18" spans="1:8" ht="13.9" customHeight="1">
+    <row r="17" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="D18"/>
@@ -715,7 +688,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="13.9" customHeight="1">
+    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="D19"/>
@@ -724,7 +697,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1">
+    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="D20"/>
@@ -733,7 +706,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" ht="13.9" customHeight="1">
+    <row r="21" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="D21"/>
@@ -742,7 +715,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" ht="13.9" customHeight="1">
+    <row r="22" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="D22"/>
@@ -751,7 +724,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" ht="13.9" customHeight="1">
+    <row r="23" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23"/>
@@ -760,7 +733,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" ht="13.9" customHeight="1">
+    <row r="24" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="D24"/>
@@ -769,7 +742,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" ht="13.9" customHeight="1">
+    <row r="25" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="D25"/>
@@ -778,7 +751,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" ht="13.9" customHeight="1">
+    <row r="26" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="D26"/>
@@ -787,7 +760,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" ht="13.9" customHeight="1">
+    <row r="27" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="D27"/>
@@ -796,7 +769,7 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" ht="13.9" customHeight="1">
+    <row r="28" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="D28"/>
@@ -805,7 +778,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" ht="13.9" customHeight="1">
+    <row r="29" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="D29"/>
@@ -814,7 +787,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" ht="13.9" customHeight="1">
+    <row r="30" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="D30"/>
@@ -823,7 +796,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" ht="13.9" customHeight="1">
+    <row r="31" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="D31"/>
@@ -832,7 +805,7 @@
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" ht="13.9" customHeight="1">
+    <row r="32" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="D32"/>
@@ -841,7 +814,7 @@
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1">
+    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="D33"/>
@@ -850,8 +823,8 @@
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1"/>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="D35"/>
@@ -860,7 +833,7 @@
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1">
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="D36"/>
@@ -869,7 +842,7 @@
       <c r="G36"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="13.9" customHeight="1">
+    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="D37"/>
@@ -878,7 +851,7 @@
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="D38"/>
@@ -887,7 +860,7 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="13.9" customHeight="1">
+    <row r="39" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="D39"/>
@@ -896,7 +869,7 @@
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="13.9" customHeight="1">
+    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="D40"/>
@@ -905,7 +878,7 @@
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="13.9" customHeight="1">
+    <row r="41" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="D41"/>
@@ -914,7 +887,7 @@
       <c r="G41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="13.9" customHeight="1">
+    <row r="42" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="D42"/>
@@ -923,7 +896,7 @@
       <c r="G42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="13.9" customHeight="1">
+    <row r="43" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="D43"/>
@@ -932,7 +905,7 @@
       <c r="G43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="13.9" customHeight="1">
+    <row r="44" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="D44"/>
@@ -941,7 +914,7 @@
       <c r="G44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="13.9" customHeight="1">
+    <row r="45" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="D45"/>
@@ -950,7 +923,7 @@
       <c r="G45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" ht="13.9" customHeight="1">
+    <row r="46" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="D46"/>
@@ -959,7 +932,7 @@
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="13.9" customHeight="1">
+    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="D47"/>
@@ -968,7 +941,7 @@
       <c r="G47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="13.9" customHeight="1">
+    <row r="48" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="D48"/>
@@ -977,7 +950,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="13.9" customHeight="1">
+    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -986,8 +959,8 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="13.9" customHeight="1"/>
-    <row r="51" spans="1:8" ht="13.9" customHeight="1">
+    <row r="50" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="D51"/>
@@ -996,7 +969,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="13.9" customHeight="1">
+    <row r="52" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="D52"/>
@@ -1005,7 +978,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="13.9" customHeight="1">
+    <row r="53" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="D53"/>
@@ -1014,7 +987,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="13.9" customHeight="1">
+    <row r="54" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="D54"/>
@@ -1023,7 +996,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="13.9" customHeight="1">
+    <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="D55"/>
@@ -1032,7 +1005,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="13.9" customHeight="1">
+    <row r="56" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="D56"/>
@@ -1041,7 +1014,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="13.9" customHeight="1">
+    <row r="57" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="D57"/>
@@ -1050,7 +1023,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="13.9" customHeight="1">
+    <row r="58" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="D58"/>
@@ -1059,7 +1032,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="13.9" customHeight="1">
+    <row r="59" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="D59"/>
@@ -1068,7 +1041,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="13.9" customHeight="1">
+    <row r="60" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="D60"/>
@@ -1077,7 +1050,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="13.9" customHeight="1">
+    <row r="61" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="D61"/>
@@ -1086,7 +1059,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="13.9" customHeight="1">
+    <row r="62" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="D62"/>
@@ -1095,7 +1068,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="13.9" customHeight="1">
+    <row r="63" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="D63"/>
@@ -1104,7 +1077,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" ht="13.9" customHeight="1">
+    <row r="64" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="D64"/>
@@ -1113,7 +1086,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" ht="13.9" customHeight="1">
+    <row r="65" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="D65"/>
@@ -1122,7 +1095,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="13.9" customHeight="1">
+    <row r="66" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="D66"/>
@@ -1131,20 +1104,20 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="13.9" customHeight="1"/>
-    <row r="68" spans="1:8">
+    <row r="67" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D68" s="7"/>
     </row>
-    <row r="320" ht="14.45" customHeight="1"/>
-    <row r="321" ht="14.45" customHeight="1"/>
-    <row r="322" ht="14.45" customHeight="1"/>
-    <row r="386" ht="14.45" customHeight="1"/>
-    <row r="387" ht="14.45" customHeight="1"/>
-    <row r="388" ht="14.45" customHeight="1"/>
-    <row r="452" ht="14.45" customHeight="1"/>
-    <row r="453" ht="14.45" customHeight="1"/>
-    <row r="454" ht="14.45" customHeight="1"/>
-    <row r="716" spans="1:12">
+    <row r="320" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -1158,7 +1131,7 @@
       <c r="K716" s="3"/>
       <c r="L716" s="3"/>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -1172,7 +1145,7 @@
       <c r="K717" s="3"/>
       <c r="L717" s="3"/>
     </row>
-    <row r="718" spans="1:12">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -1210,26 +1183,26 @@
       <selection activeCellId="1" sqref="A2:XFD67 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" customHeight="1">
+    <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1242,71 +1215,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="A2:XFD67 A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="25.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
